--- a/Output/AcqTrends/Customer/Army/Army_Contracts.xlsx
+++ b/Output/AcqTrends/Customer/Army/Army_Contracts.xlsx
@@ -9,12 +9,14 @@
     <sheet name="PSR" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Plat" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Price" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="FYQ" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Veh" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t xml:space="preserve">SimpleArea</t>
   </si>
@@ -211,19 +213,60 @@
     <t xml:space="preserve">Undefinitized
 Contract Award</t>
   </si>
+  <si>
+    <t xml:space="preserve">Vehicle.AwardTask</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehicle.sum7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Award</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Definitive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pur. Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Task Order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOA or BPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FSS or GWAC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multi-Awd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Single-Awd.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unlbd. IDV</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="166" formatCode="0.00,,,&quot;B&quot;"/>
+    <numFmt numFmtId="167" formatCode="0.00,,,&quot;B&quot;"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -246,8 +289,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5998,4 +6043,3414 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="M1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R1" t="s">
+        <v>4</v>
+      </c>
+      <c r="S1" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="M2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1" t="n">
+        <v>22426057058.8067</v>
+      </c>
+      <c r="Z2" s="1" t="n">
+        <v>23733260919.1768</v>
+      </c>
+      <c r="AA2" s="1" t="n">
+        <v>26518577625.9108</v>
+      </c>
+      <c r="AB2" s="1" t="n">
+        <v>30995764720.1117</v>
+      </c>
+      <c r="AC2" s="1" t="n">
+        <v>32222065690.0194</v>
+      </c>
+      <c r="AD2" s="1" t="n">
+        <v>37511927941.3769</v>
+      </c>
+      <c r="AE2" s="1" t="n">
+        <v>43768727053.2062</v>
+      </c>
+      <c r="AF2" s="1" t="n">
+        <v>49596016683.5316</v>
+      </c>
+      <c r="AG2" s="1" t="n">
+        <v>66121067978.0838</v>
+      </c>
+      <c r="AH2" s="1" t="n">
+        <v>58594209424.0085</v>
+      </c>
+      <c r="AI2" s="1" t="n">
+        <v>55365573721.5935</v>
+      </c>
+      <c r="AJ2" s="1" t="n">
+        <v>50572817522.0654</v>
+      </c>
+      <c r="AK2" s="1" t="n">
+        <v>49680679973.9488</v>
+      </c>
+      <c r="AL2" s="1" t="n">
+        <v>39217226964.7278</v>
+      </c>
+      <c r="AM2" s="1" t="n">
+        <v>35348712258.6913</v>
+      </c>
+      <c r="AN2" s="1" t="n">
+        <v>36900594644.3396</v>
+      </c>
+      <c r="AO2" s="1" t="n">
+        <v>37112064968.0668</v>
+      </c>
+      <c r="AP2" s="1" t="n">
+        <v>37968722543.6747</v>
+      </c>
+      <c r="AQ2" s="1" t="n">
+        <v>42314022974.7536</v>
+      </c>
+      <c r="AR2" s="1" t="n">
+        <v>47733041015.7981</v>
+      </c>
+      <c r="AS2" s="1" t="n">
+        <v>50546816472.2488</v>
+      </c>
+      <c r="AT2" s="1" t="n">
+        <v>64463012389.8495</v>
+      </c>
+      <c r="AU2" s="1" t="n">
+        <v>64033923163.3996</v>
+      </c>
+      <c r="AV2" s="1" t="n">
+        <v>22615042703.1834</v>
+      </c>
+      <c r="AW2" s="1"/>
+    </row>
+    <row r="3">
+      <c r="M3" t="s">
+        <v>67</v>
+      </c>
+      <c r="N3" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1" t="n">
+        <v>755094650.761</v>
+      </c>
+      <c r="Z3" s="1" t="n">
+        <v>867204815.6904</v>
+      </c>
+      <c r="AA3" s="1" t="n">
+        <v>1238482686.4396</v>
+      </c>
+      <c r="AB3" s="1" t="n">
+        <v>2140208691.3889</v>
+      </c>
+      <c r="AC3" s="1" t="n">
+        <v>3008464667.3929</v>
+      </c>
+      <c r="AD3" s="1" t="n">
+        <v>3309123728.6053</v>
+      </c>
+      <c r="AE3" s="1" t="n">
+        <v>3661270886.0803</v>
+      </c>
+      <c r="AF3" s="1" t="n">
+        <v>4699851917.6664</v>
+      </c>
+      <c r="AG3" s="1" t="n">
+        <v>5381320562.5125</v>
+      </c>
+      <c r="AH3" s="1" t="n">
+        <v>4788731367.3618</v>
+      </c>
+      <c r="AI3" s="1" t="n">
+        <v>4136740895.6558</v>
+      </c>
+      <c r="AJ3" s="1" t="n">
+        <v>3649250735.1012</v>
+      </c>
+      <c r="AK3" s="1" t="n">
+        <v>2491167702.679</v>
+      </c>
+      <c r="AL3" s="1" t="n">
+        <v>1805663574.945</v>
+      </c>
+      <c r="AM3" s="1" t="n">
+        <v>1972921872.3065</v>
+      </c>
+      <c r="AN3" s="1" t="n">
+        <v>1844509580.4308</v>
+      </c>
+      <c r="AO3" s="1" t="n">
+        <v>1685060494.1264</v>
+      </c>
+      <c r="AP3" s="1" t="n">
+        <v>1695731496.5303</v>
+      </c>
+      <c r="AQ3" s="1" t="n">
+        <v>1981163456.2594</v>
+      </c>
+      <c r="AR3" s="1" t="n">
+        <v>2035741811.1246</v>
+      </c>
+      <c r="AS3" s="1" t="n">
+        <v>2090669427.433</v>
+      </c>
+      <c r="AT3" s="1" t="n">
+        <v>1664311903.8864</v>
+      </c>
+      <c r="AU3" s="1" t="n">
+        <v>1705025846.5599</v>
+      </c>
+      <c r="AV3" s="1" t="n">
+        <v>572920521.035</v>
+      </c>
+      <c r="AW3" s="1"/>
+    </row>
+    <row r="4">
+      <c r="M4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" t="s">
+        <v>71</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1" t="n">
+        <v>2832989</v>
+      </c>
+      <c r="Z4" s="1" t="n">
+        <v>7200582</v>
+      </c>
+      <c r="AA4" s="1" t="n">
+        <v>4865123</v>
+      </c>
+      <c r="AB4" s="1" t="n">
+        <v>-3506430</v>
+      </c>
+      <c r="AC4" s="1" t="n">
+        <v>465573</v>
+      </c>
+      <c r="AD4" s="1" t="n">
+        <v>12210793</v>
+      </c>
+      <c r="AE4" s="1" t="n">
+        <v>6699975.8398</v>
+      </c>
+      <c r="AF4" s="1" t="n">
+        <v>7264558.6402</v>
+      </c>
+      <c r="AG4" s="1" t="n">
+        <v>12706767.2162</v>
+      </c>
+      <c r="AH4" s="1" t="n">
+        <v>12157638.8696</v>
+      </c>
+      <c r="AI4" s="1" t="n">
+        <v>504253817.7584</v>
+      </c>
+      <c r="AJ4" s="1" t="n">
+        <v>1709845229.2148</v>
+      </c>
+      <c r="AK4" s="1" t="n">
+        <v>1809646129.5469</v>
+      </c>
+      <c r="AL4" s="1" t="n">
+        <v>1585283428.9787</v>
+      </c>
+      <c r="AM4" s="1" t="n">
+        <v>1331602003.9329</v>
+      </c>
+      <c r="AN4" s="1" t="n">
+        <v>1553188366.4409</v>
+      </c>
+      <c r="AO4" s="1" t="n">
+        <v>2062000564.6626</v>
+      </c>
+      <c r="AP4" s="1" t="n">
+        <v>2664344258.0893</v>
+      </c>
+      <c r="AQ4" s="1" t="n">
+        <v>3517529939.2821</v>
+      </c>
+      <c r="AR4" s="1" t="n">
+        <v>2673797317.8054</v>
+      </c>
+      <c r="AS4" s="1" t="n">
+        <v>2994283763.9322</v>
+      </c>
+      <c r="AT4" s="1" t="n">
+        <v>2287204497.7524</v>
+      </c>
+      <c r="AU4" s="1" t="n">
+        <v>1980823166.7063</v>
+      </c>
+      <c r="AV4" s="1" t="n">
+        <v>997727323.1686</v>
+      </c>
+      <c r="AW4" s="1"/>
+    </row>
+    <row r="5">
+      <c r="M5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1" t="n">
+        <v>1181774691.9517</v>
+      </c>
+      <c r="Z5" s="1" t="n">
+        <v>1678957170.7108</v>
+      </c>
+      <c r="AA5" s="1" t="n">
+        <v>2307294299.3517</v>
+      </c>
+      <c r="AB5" s="1" t="n">
+        <v>3363283022.9507</v>
+      </c>
+      <c r="AC5" s="1" t="n">
+        <v>4115287873.9417</v>
+      </c>
+      <c r="AD5" s="1" t="n">
+        <v>4209179880.9473</v>
+      </c>
+      <c r="AE5" s="1" t="n">
+        <v>4316029472.219</v>
+      </c>
+      <c r="AF5" s="1" t="n">
+        <v>4450449410.4588</v>
+      </c>
+      <c r="AG5" s="1" t="n">
+        <v>4355807120.0178</v>
+      </c>
+      <c r="AH5" s="1" t="n">
+        <v>3906176208.9647</v>
+      </c>
+      <c r="AI5" s="1" t="n">
+        <v>3428566944.8973</v>
+      </c>
+      <c r="AJ5" s="1" t="n">
+        <v>2935201052.1322</v>
+      </c>
+      <c r="AK5" s="1" t="n">
+        <v>2491391711.1839</v>
+      </c>
+      <c r="AL5" s="1" t="n">
+        <v>1802408506.7151</v>
+      </c>
+      <c r="AM5" s="1" t="n">
+        <v>1760995128.8462</v>
+      </c>
+      <c r="AN5" s="1" t="n">
+        <v>1691986448.9076</v>
+      </c>
+      <c r="AO5" s="1" t="n">
+        <v>1612631390.7773</v>
+      </c>
+      <c r="AP5" s="1" t="n">
+        <v>1788898482.3994</v>
+      </c>
+      <c r="AQ5" s="1" t="n">
+        <v>2058930802.9189</v>
+      </c>
+      <c r="AR5" s="1" t="n">
+        <v>2281705976.4069</v>
+      </c>
+      <c r="AS5" s="1" t="n">
+        <v>2478376141.8164</v>
+      </c>
+      <c r="AT5" s="1" t="n">
+        <v>2421184416.8726</v>
+      </c>
+      <c r="AU5" s="1" t="n">
+        <v>2486998020.4462</v>
+      </c>
+      <c r="AV5" s="1" t="n">
+        <v>1114997592.212</v>
+      </c>
+      <c r="AW5" s="1"/>
+    </row>
+    <row r="6">
+      <c r="M6" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1" t="n">
+        <v>3038243787.5466</v>
+      </c>
+      <c r="Z6" s="1" t="n">
+        <v>3403975229.5249</v>
+      </c>
+      <c r="AA6" s="1" t="n">
+        <v>3949906232.194</v>
+      </c>
+      <c r="AB6" s="1" t="n">
+        <v>6184072910.7974</v>
+      </c>
+      <c r="AC6" s="1" t="n">
+        <v>9099075437.6138</v>
+      </c>
+      <c r="AD6" s="1" t="n">
+        <v>11095609932.4531</v>
+      </c>
+      <c r="AE6" s="1" t="n">
+        <v>12824666627.849</v>
+      </c>
+      <c r="AF6" s="1" t="n">
+        <v>15404123270.1095</v>
+      </c>
+      <c r="AG6" s="1" t="n">
+        <v>20890139207.4322</v>
+      </c>
+      <c r="AH6" s="1" t="n">
+        <v>25470141767.7483</v>
+      </c>
+      <c r="AI6" s="1" t="n">
+        <v>29260082658.9859</v>
+      </c>
+      <c r="AJ6" s="1" t="n">
+        <v>27661479865.0593</v>
+      </c>
+      <c r="AK6" s="1" t="n">
+        <v>22544368477.5685</v>
+      </c>
+      <c r="AL6" s="1" t="n">
+        <v>19433004579.147</v>
+      </c>
+      <c r="AM6" s="1" t="n">
+        <v>15050005483.7055</v>
+      </c>
+      <c r="AN6" s="1" t="n">
+        <v>12158441181.4959</v>
+      </c>
+      <c r="AO6" s="1" t="n">
+        <v>13759950391.3804</v>
+      </c>
+      <c r="AP6" s="1" t="n">
+        <v>14122763519.8671</v>
+      </c>
+      <c r="AQ6" s="1" t="n">
+        <v>16198607278.9282</v>
+      </c>
+      <c r="AR6" s="1" t="n">
+        <v>16418508296.5464</v>
+      </c>
+      <c r="AS6" s="1" t="n">
+        <v>19153356315.3025</v>
+      </c>
+      <c r="AT6" s="1" t="n">
+        <v>15087548997.3585</v>
+      </c>
+      <c r="AU6" s="1" t="n">
+        <v>16642399465.7607</v>
+      </c>
+      <c r="AV6" s="1" t="n">
+        <v>5979165882.1862</v>
+      </c>
+      <c r="AW6" s="1"/>
+    </row>
+    <row r="7">
+      <c r="M7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" t="s">
+        <v>74</v>
+      </c>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1" t="n">
+        <v>9013442525.9655</v>
+      </c>
+      <c r="Z7" s="1" t="n">
+        <v>10744373454.6069</v>
+      </c>
+      <c r="AA7" s="1" t="n">
+        <v>12102084267.73</v>
+      </c>
+      <c r="AB7" s="1" t="n">
+        <v>21499462787.5988</v>
+      </c>
+      <c r="AC7" s="1" t="n">
+        <v>27565658545.0698</v>
+      </c>
+      <c r="AD7" s="1" t="n">
+        <v>39480019366.891</v>
+      </c>
+      <c r="AE7" s="1" t="n">
+        <v>37094690793.1826</v>
+      </c>
+      <c r="AF7" s="1" t="n">
+        <v>44196959584.0019</v>
+      </c>
+      <c r="AG7" s="1" t="n">
+        <v>56347615150.9101</v>
+      </c>
+      <c r="AH7" s="1" t="n">
+        <v>54408839257.1663</v>
+      </c>
+      <c r="AI7" s="1" t="n">
+        <v>48307403618.3893</v>
+      </c>
+      <c r="AJ7" s="1" t="n">
+        <v>38787165303.455</v>
+      </c>
+      <c r="AK7" s="1" t="n">
+        <v>29793711237.7434</v>
+      </c>
+      <c r="AL7" s="1" t="n">
+        <v>23148691353.8143</v>
+      </c>
+      <c r="AM7" s="1" t="n">
+        <v>19853817590.0379</v>
+      </c>
+      <c r="AN7" s="1" t="n">
+        <v>18421052922.6867</v>
+      </c>
+      <c r="AO7" s="1" t="n">
+        <v>18105415285.1254</v>
+      </c>
+      <c r="AP7" s="1" t="n">
+        <v>20336037085.2464</v>
+      </c>
+      <c r="AQ7" s="1" t="n">
+        <v>25489529609.2491</v>
+      </c>
+      <c r="AR7" s="1" t="n">
+        <v>23999079792.5684</v>
+      </c>
+      <c r="AS7" s="1" t="n">
+        <v>23426148618.5942</v>
+      </c>
+      <c r="AT7" s="1" t="n">
+        <v>23964270704.2229</v>
+      </c>
+      <c r="AU7" s="1" t="n">
+        <v>25806448890.1831</v>
+      </c>
+      <c r="AV7" s="1" t="n">
+        <v>13156437966.404</v>
+      </c>
+      <c r="AW7" s="1"/>
+    </row>
+    <row r="8">
+      <c r="M8" t="s">
+        <v>70</v>
+      </c>
+      <c r="N8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1" t="n">
+        <v>415041124.7452</v>
+      </c>
+      <c r="Z8" s="1" t="n">
+        <v>121233368.5304</v>
+      </c>
+      <c r="AA8" s="1" t="n">
+        <v>57538019</v>
+      </c>
+      <c r="AB8" s="1" t="n">
+        <v>27305150</v>
+      </c>
+      <c r="AC8" s="1" t="n">
+        <v>45752344</v>
+      </c>
+      <c r="AD8" s="1" t="n">
+        <v>7386877</v>
+      </c>
+      <c r="AE8" s="1" t="n">
+        <v>5013422.5096</v>
+      </c>
+      <c r="AF8" s="1" t="n">
+        <v>8048633.3325</v>
+      </c>
+      <c r="AG8" s="1" t="n">
+        <v>8852176.4344</v>
+      </c>
+      <c r="AH8" s="1" t="n">
+        <v>5894062.2515</v>
+      </c>
+      <c r="AI8" s="1" t="n">
+        <v>175449934.7546</v>
+      </c>
+      <c r="AJ8" s="1" t="n">
+        <v>195167191.8857</v>
+      </c>
+      <c r="AK8" s="1" t="n">
+        <v>167314558.6792</v>
+      </c>
+      <c r="AL8" s="1" t="n">
+        <v>132296280.5538</v>
+      </c>
+      <c r="AM8" s="1" t="n">
+        <v>125156557.7638</v>
+      </c>
+      <c r="AN8" s="1" t="n">
+        <v>151002188.463</v>
+      </c>
+      <c r="AO8" s="1" t="n">
+        <v>30455034.3666</v>
+      </c>
+      <c r="AP8" s="1" t="n">
+        <v>30742692.3201</v>
+      </c>
+      <c r="AQ8" s="1" t="n">
+        <v>858810.375</v>
+      </c>
+      <c r="AR8" s="1" t="n">
+        <v>1122630.5</v>
+      </c>
+      <c r="AS8" s="1" t="n">
+        <v>1471383.125</v>
+      </c>
+      <c r="AT8" s="1" t="n">
+        <v>1930569.125</v>
+      </c>
+      <c r="AU8" s="1" t="n">
+        <v>1306848.125</v>
+      </c>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+    </row>
+    <row r="9">
+      <c r="M9"/>
+      <c r="N9"/>
+      <c r="O9" s="1" t="n">
+        <v>22813033000</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>34893842000</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>31113808998</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>30657778464</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>20628301908</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>29493441926</v>
+      </c>
+      <c r="U9" s="1" t="n">
+        <v>31662201213</v>
+      </c>
+      <c r="V9" s="1" t="n">
+        <v>31185929950</v>
+      </c>
+      <c r="W9" s="1" t="n">
+        <v>31088689272</v>
+      </c>
+      <c r="X9" s="1" t="n">
+        <v>33772526734</v>
+      </c>
+      <c r="Y9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="1" t="n">
+        <v>115762.3828</v>
+      </c>
+      <c r="AB9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="1" t="n">
+        <v>667000</v>
+      </c>
+      <c r="AD9" s="1" t="n">
+        <v>1971192.5625</v>
+      </c>
+      <c r="AE9" s="1" t="n">
+        <v>1077990</v>
+      </c>
+      <c r="AF9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="1"/>
+      <c r="AR9" s="1"/>
+      <c r="AS9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1"/>
+    </row>
+    <row r="13">
+      <c r="M13" t="s">
+        <v>65</v>
+      </c>
+      <c r="N13" t="s">
+        <v>66</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>3</v>
+      </c>
+      <c r="R13" t="s">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" t="s">
+        <v>7</v>
+      </c>
+      <c r="V13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W13" t="s">
+        <v>9</v>
+      </c>
+      <c r="X13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="M14" t="s">
+        <v>67</v>
+      </c>
+      <c r="N14" t="s">
+        <v>68</v>
+      </c>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1" t="n">
+        <v>36234454287.752</v>
+      </c>
+      <c r="Z14" s="1" t="n">
+        <v>37438676552.9275</v>
+      </c>
+      <c r="AA14" s="1" t="n">
+        <v>41182445189.52</v>
+      </c>
+      <c r="AB14" s="1" t="n">
+        <v>47232534524.0382</v>
+      </c>
+      <c r="AC14" s="1" t="n">
+        <v>47929656641.4567</v>
+      </c>
+      <c r="AD14" s="1" t="n">
+        <v>54154271308.5913</v>
+      </c>
+      <c r="AE14" s="1" t="n">
+        <v>61194579715.5546</v>
+      </c>
+      <c r="AF14" s="1" t="n">
+        <v>67491099853.7476</v>
+      </c>
+      <c r="AG14" s="1" t="n">
+        <v>88140426453.2653</v>
+      </c>
+      <c r="AH14" s="1" t="n">
+        <v>77321270012.6262</v>
+      </c>
+      <c r="AI14" s="1" t="n">
+        <v>72430778059.6474</v>
+      </c>
+      <c r="AJ14" s="1" t="n">
+        <v>64853715963.7456</v>
+      </c>
+      <c r="AK14" s="1" t="n">
+        <v>62562880279.2567</v>
+      </c>
+      <c r="AL14" s="1" t="n">
+        <v>48498727187.2006</v>
+      </c>
+      <c r="AM14" s="1" t="n">
+        <v>42885003233.7093</v>
+      </c>
+      <c r="AN14" s="1" t="n">
+        <v>44260328469.7953</v>
+      </c>
+      <c r="AO14" s="1" t="n">
+        <v>44148142301.0842</v>
+      </c>
+      <c r="AP14" s="1" t="n">
+        <v>44374953432.1083</v>
+      </c>
+      <c r="AQ14" s="1" t="n">
+        <v>48318869356.7404</v>
+      </c>
+      <c r="AR14" s="1" t="n">
+        <v>53459817290.7323</v>
+      </c>
+      <c r="AS14" s="1" t="n">
+        <v>55865899612.2875</v>
+      </c>
+      <c r="AT14" s="1" t="n">
+        <v>68929499479.9172</v>
+      </c>
+      <c r="AU14" s="1" t="n">
+        <v>64033923163.3996</v>
+      </c>
+      <c r="AV14" s="1" t="n">
+        <v>21570191081.1569</v>
+      </c>
+      <c r="AW14" s="1"/>
+    </row>
+    <row r="15">
+      <c r="M15" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15" t="s">
+        <v>69</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1" t="n">
+        <v>1220029117.65451</v>
+      </c>
+      <c r="Z15" s="1" t="n">
+        <v>1367995772.27671</v>
+      </c>
+      <c r="AA15" s="1" t="n">
+        <v>1923321305.99017</v>
+      </c>
+      <c r="AB15" s="1" t="n">
+        <v>3261332050.28111</v>
+      </c>
+      <c r="AC15" s="1" t="n">
+        <v>4475029003.82825</v>
+      </c>
+      <c r="AD15" s="1" t="n">
+        <v>4777232043.96865</v>
+      </c>
+      <c r="AE15" s="1" t="n">
+        <v>5118950177.05497</v>
+      </c>
+      <c r="AF15" s="1" t="n">
+        <v>6395638123.46196</v>
+      </c>
+      <c r="AG15" s="1" t="n">
+        <v>7173385182.14483</v>
+      </c>
+      <c r="AH15" s="1" t="n">
+        <v>6319238619.5418</v>
+      </c>
+      <c r="AI15" s="1" t="n">
+        <v>5411799093.96753</v>
+      </c>
+      <c r="AJ15" s="1" t="n">
+        <v>4679736709.37916</v>
+      </c>
+      <c r="AK15" s="1" t="n">
+        <v>3137127487.3851</v>
+      </c>
+      <c r="AL15" s="1" t="n">
+        <v>2233008090.85471</v>
+      </c>
+      <c r="AM15" s="1" t="n">
+        <v>2393545774.86531</v>
+      </c>
+      <c r="AN15" s="1" t="n">
+        <v>2212392528.69532</v>
+      </c>
+      <c r="AO15" s="1" t="n">
+        <v>2004531155.69394</v>
+      </c>
+      <c r="AP15" s="1" t="n">
+        <v>1981841925.4252</v>
+      </c>
+      <c r="AQ15" s="1" t="n">
+        <v>2262313329.89684</v>
+      </c>
+      <c r="AR15" s="1" t="n">
+        <v>2279980134.46925</v>
+      </c>
+      <c r="AS15" s="1" t="n">
+        <v>2310672293.6661</v>
+      </c>
+      <c r="AT15" s="1" t="n">
+        <v>1779628072.91056</v>
+      </c>
+      <c r="AU15" s="1" t="n">
+        <v>1705025846.5599</v>
+      </c>
+      <c r="AV15" s="1" t="n">
+        <v>546450664.508422</v>
+      </c>
+      <c r="AW15" s="1"/>
+    </row>
+    <row r="16">
+      <c r="M16" t="s">
+        <v>70</v>
+      </c>
+      <c r="N16" t="s">
+        <v>71</v>
+      </c>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1" t="n">
+        <v>4577345.45796551</v>
+      </c>
+      <c r="Z16" s="1" t="n">
+        <v>11358753.4982606</v>
+      </c>
+      <c r="AA16" s="1" t="n">
+        <v>7555369.82843332</v>
+      </c>
+      <c r="AB16" s="1" t="n">
+        <v>-5343232.45535742</v>
+      </c>
+      <c r="AC16" s="1" t="n">
+        <v>692530.213494189</v>
+      </c>
+      <c r="AD16" s="1" t="n">
+        <v>17628168.7800335</v>
+      </c>
+      <c r="AE16" s="1" t="n">
+        <v>9367469.26915475</v>
+      </c>
+      <c r="AF16" s="1" t="n">
+        <v>9885734.48766391</v>
+      </c>
+      <c r="AG16" s="1" t="n">
+        <v>16938321.1059062</v>
+      </c>
+      <c r="AH16" s="1" t="n">
+        <v>16043293.1341363</v>
+      </c>
+      <c r="AI16" s="1" t="n">
+        <v>659678820.334229</v>
+      </c>
+      <c r="AJ16" s="1" t="n">
+        <v>2192676269.00716</v>
+      </c>
+      <c r="AK16" s="1" t="n">
+        <v>2278887370.5036</v>
+      </c>
+      <c r="AL16" s="1" t="n">
+        <v>1960470805.485</v>
+      </c>
+      <c r="AM16" s="1" t="n">
+        <v>1615497498.9403</v>
+      </c>
+      <c r="AN16" s="1" t="n">
+        <v>1862968007.33763</v>
+      </c>
+      <c r="AO16" s="1" t="n">
+        <v>2452935303.70704</v>
+      </c>
+      <c r="AP16" s="1" t="n">
+        <v>3113882808.24618</v>
+      </c>
+      <c r="AQ16" s="1" t="n">
+        <v>4016707881.82921</v>
+      </c>
+      <c r="AR16" s="1" t="n">
+        <v>2994586413.1099</v>
+      </c>
+      <c r="AS16" s="1" t="n">
+        <v>3309374711.23187</v>
+      </c>
+      <c r="AT16" s="1" t="n">
+        <v>2445679396.50169</v>
+      </c>
+      <c r="AU16" s="1" t="n">
+        <v>1980823166.7063</v>
+      </c>
+      <c r="AV16" s="1" t="n">
+        <v>951630703.95655</v>
+      </c>
+      <c r="AW16" s="1"/>
+    </row>
+    <row r="17">
+      <c r="M17" t="s">
+        <v>70</v>
+      </c>
+      <c r="N17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1" t="n">
+        <v>1909428881.84307</v>
+      </c>
+      <c r="Z17" s="1" t="n">
+        <v>2648516555.5008</v>
+      </c>
+      <c r="AA17" s="1" t="n">
+        <v>3583149230.68503</v>
+      </c>
+      <c r="AB17" s="1" t="n">
+        <v>5125099604.09385</v>
+      </c>
+      <c r="AC17" s="1" t="n">
+        <v>6121405644.07922</v>
+      </c>
+      <c r="AD17" s="1" t="n">
+        <v>6076602344.07875</v>
+      </c>
+      <c r="AE17" s="1" t="n">
+        <v>6034390931.02529</v>
+      </c>
+      <c r="AF17" s="1" t="n">
+        <v>6056246965.79844</v>
+      </c>
+      <c r="AG17" s="1" t="n">
+        <v>5806359589.25817</v>
+      </c>
+      <c r="AH17" s="1" t="n">
+        <v>5154613541.83749</v>
+      </c>
+      <c r="AI17" s="1" t="n">
+        <v>4485346303.77442</v>
+      </c>
+      <c r="AJ17" s="1" t="n">
+        <v>3764051612.27993</v>
+      </c>
+      <c r="AK17" s="1" t="n">
+        <v>3137409581.29527</v>
+      </c>
+      <c r="AL17" s="1" t="n">
+        <v>2228982649.0202</v>
+      </c>
+      <c r="AM17" s="1" t="n">
+        <v>2136436576.31537</v>
+      </c>
+      <c r="AN17" s="1" t="n">
+        <v>2029449029.66707</v>
+      </c>
+      <c r="AO17" s="1" t="n">
+        <v>1918370216.8147</v>
+      </c>
+      <c r="AP17" s="1" t="n">
+        <v>2090728408.36113</v>
+      </c>
+      <c r="AQ17" s="1" t="n">
+        <v>2351116757.20752</v>
+      </c>
+      <c r="AR17" s="1" t="n">
+        <v>2555453874.5921</v>
+      </c>
+      <c r="AS17" s="1" t="n">
+        <v>2739177705.0137</v>
+      </c>
+      <c r="AT17" s="1" t="n">
+        <v>2588942461.98589</v>
+      </c>
+      <c r="AU17" s="1" t="n">
+        <v>2486998020.4462</v>
+      </c>
+      <c r="AV17" s="1" t="n">
+        <v>1063482896.52609</v>
+      </c>
+      <c r="AW17" s="1"/>
+    </row>
+    <row r="18">
+      <c r="M18" t="s">
+        <v>70</v>
+      </c>
+      <c r="N18" t="s">
+        <v>73</v>
+      </c>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1" t="n">
+        <v>4908981786.06354</v>
+      </c>
+      <c r="Z18" s="1" t="n">
+        <v>5369693109.02348</v>
+      </c>
+      <c r="AA18" s="1" t="n">
+        <v>6134069451.45257</v>
+      </c>
+      <c r="AB18" s="1" t="n">
+        <v>9423527372.07624</v>
+      </c>
+      <c r="AC18" s="1" t="n">
+        <v>13534686623.6024</v>
+      </c>
+      <c r="AD18" s="1" t="n">
+        <v>16018229496.3726</v>
+      </c>
+      <c r="AE18" s="1" t="n">
+        <v>17930612497.1215</v>
+      </c>
+      <c r="AF18" s="1" t="n">
+        <v>20962191952.1535</v>
+      </c>
+      <c r="AG18" s="1" t="n">
+        <v>27846885035.5147</v>
+      </c>
+      <c r="AH18" s="1" t="n">
+        <v>33610551763.4478</v>
+      </c>
+      <c r="AI18" s="1" t="n">
+        <v>38278851109.4824</v>
+      </c>
+      <c r="AJ18" s="1" t="n">
+        <v>35472608531.702</v>
+      </c>
+      <c r="AK18" s="1" t="n">
+        <v>28390123218.3852</v>
+      </c>
+      <c r="AL18" s="1" t="n">
+        <v>24032193514.3282</v>
+      </c>
+      <c r="AM18" s="1" t="n">
+        <v>18258643458.1464</v>
+      </c>
+      <c r="AN18" s="1" t="n">
+        <v>14583412694.5768</v>
+      </c>
+      <c r="AO18" s="1" t="n">
+        <v>16368699733.0175</v>
+      </c>
+      <c r="AP18" s="1" t="n">
+        <v>16505611238.4582</v>
+      </c>
+      <c r="AQ18" s="1" t="n">
+        <v>18497375901.5698</v>
+      </c>
+      <c r="AR18" s="1" t="n">
+        <v>18388320438.86</v>
+      </c>
+      <c r="AS18" s="1" t="n">
+        <v>21168879779.729</v>
+      </c>
+      <c r="AT18" s="1" t="n">
+        <v>16132928980.6879</v>
+      </c>
+      <c r="AU18" s="1" t="n">
+        <v>16642399465.7607</v>
+      </c>
+      <c r="AV18" s="1" t="n">
+        <v>5702918728.80415</v>
+      </c>
+      <c r="AW18" s="1"/>
+    </row>
+    <row r="19">
+      <c r="M19" t="s">
+        <v>70</v>
+      </c>
+      <c r="N19" t="s">
+        <v>74</v>
+      </c>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1" t="n">
+        <v>14563289941.0698</v>
+      </c>
+      <c r="Z19" s="1" t="n">
+        <v>16949003506.1242</v>
+      </c>
+      <c r="AA19" s="1" t="n">
+        <v>18794123465.6482</v>
+      </c>
+      <c r="AB19" s="1" t="n">
+        <v>32761705592.1399</v>
+      </c>
+      <c r="AC19" s="1" t="n">
+        <v>41003347267.3998</v>
+      </c>
+      <c r="AD19" s="1" t="n">
+        <v>56995515757.1295</v>
+      </c>
+      <c r="AE19" s="1" t="n">
+        <v>51863377475.1505</v>
+      </c>
+      <c r="AF19" s="1" t="n">
+        <v>60143971471.5313</v>
+      </c>
+      <c r="AG19" s="1" t="n">
+        <v>75112259691.1451</v>
+      </c>
+      <c r="AH19" s="1" t="n">
+        <v>71798230450.2801</v>
+      </c>
+      <c r="AI19" s="1" t="n">
+        <v>63197084305.779</v>
+      </c>
+      <c r="AJ19" s="1" t="n">
+        <v>49739997193.7808</v>
+      </c>
+      <c r="AK19" s="1" t="n">
+        <v>37519220554.5316</v>
+      </c>
+      <c r="AL19" s="1" t="n">
+        <v>28627268004.4179</v>
+      </c>
+      <c r="AM19" s="1" t="n">
+        <v>24086620902.036</v>
+      </c>
+      <c r="AN19" s="1" t="n">
+        <v>22095087111.087</v>
+      </c>
+      <c r="AO19" s="1" t="n">
+        <v>21538021425.5316</v>
+      </c>
+      <c r="AP19" s="1" t="n">
+        <v>23767212542.2026</v>
+      </c>
+      <c r="AQ19" s="1" t="n">
+        <v>29106786936.5415</v>
+      </c>
+      <c r="AR19" s="1" t="n">
+        <v>26878371743.2079</v>
+      </c>
+      <c r="AS19" s="1" t="n">
+        <v>25891301537.2081</v>
+      </c>
+      <c r="AT19" s="1" t="n">
+        <v>25624697385.4333</v>
+      </c>
+      <c r="AU19" s="1" t="n">
+        <v>25806448890.1831</v>
+      </c>
+      <c r="AV19" s="1" t="n">
+        <v>12548589211.4974</v>
+      </c>
+      <c r="AW19" s="1"/>
+    </row>
+    <row r="20">
+      <c r="M20" t="s">
+        <v>70</v>
+      </c>
+      <c r="N20" t="s">
+        <v>75</v>
+      </c>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1" t="n">
+        <v>670594417.140815</v>
+      </c>
+      <c r="Z20" s="1" t="n">
+        <v>191242867.437743</v>
+      </c>
+      <c r="AA20" s="1" t="n">
+        <v>89354578.0323381</v>
+      </c>
+      <c r="AB20" s="1" t="n">
+        <v>41608634.3313292</v>
+      </c>
+      <c r="AC20" s="1" t="n">
+        <v>68055665.9389174</v>
+      </c>
+      <c r="AD20" s="1" t="n">
+        <v>10664099.744656</v>
+      </c>
+      <c r="AE20" s="1" t="n">
+        <v>7009440.39424605</v>
+      </c>
+      <c r="AF20" s="1" t="n">
+        <v>10952716.6142424</v>
+      </c>
+      <c r="AG20" s="1" t="n">
+        <v>11800090.8005021</v>
+      </c>
+      <c r="AH20" s="1" t="n">
+        <v>7777839.8804153</v>
+      </c>
+      <c r="AI20" s="1" t="n">
+        <v>229528467.431626</v>
+      </c>
+      <c r="AJ20" s="1" t="n">
+        <v>250279067.850521</v>
+      </c>
+      <c r="AK20" s="1" t="n">
+        <v>210699223.704515</v>
+      </c>
+      <c r="AL20" s="1" t="n">
+        <v>163606703.355922</v>
+      </c>
+      <c r="AM20" s="1" t="n">
+        <v>151839742.990943</v>
+      </c>
+      <c r="AN20" s="1" t="n">
+        <v>181119207.575033</v>
+      </c>
+      <c r="AO20" s="1" t="n">
+        <v>36229005.1000389</v>
+      </c>
+      <c r="AP20" s="1" t="n">
+        <v>35929719.2185713</v>
+      </c>
+      <c r="AQ20" s="1" t="n">
+        <v>980685.441717443</v>
+      </c>
+      <c r="AR20" s="1" t="n">
+        <v>1257318.20428412</v>
+      </c>
+      <c r="AS20" s="1" t="n">
+        <v>1626217.98343311</v>
+      </c>
+      <c r="AT20" s="1" t="n">
+        <v>2064333.61650635</v>
+      </c>
+      <c r="AU20" s="1" t="n">
+        <v>1306848.125</v>
+      </c>
+      <c r="AV20" s="1"/>
+      <c r="AW20" s="1"/>
+    </row>
+    <row r="21">
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21" s="1" t="n">
+        <v>45341623216.1956</v>
+      </c>
+      <c r="P21" s="1" t="n">
+        <v>66964058620.3498</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>58253969126.9293</v>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>56082714189.9998</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>36930936282.1019</v>
+      </c>
+      <c r="T21" s="1" t="n">
+        <v>51706934999.2854</v>
+      </c>
+      <c r="U21" s="1" t="n">
+        <v>54485118895.0853</v>
+      </c>
+      <c r="V21" s="1" t="n">
+        <v>52728842061.1894</v>
+      </c>
+      <c r="W21" s="1" t="n">
+        <v>51916173443.895</v>
+      </c>
+      <c r="X21" s="1" t="n">
+        <v>55703658070.0609</v>
+      </c>
+      <c r="Y21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="1" t="n">
+        <v>179775.026093825</v>
+      </c>
+      <c r="AB21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="1" t="n">
+        <v>992148.712233365</v>
+      </c>
+      <c r="AD21" s="1" t="n">
+        <v>2845721.41954227</v>
+      </c>
+      <c r="AE21" s="1" t="n">
+        <v>1507175.31509152</v>
+      </c>
+      <c r="AF21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="1"/>
+      <c r="AR21" s="1"/>
+      <c r="AS21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false">
+      <pane ySplit="1" xSplit="2" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="N1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" t="s">
+        <v>66</v>
+      </c>
+      <c r="P1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" t="s">
+        <v>3</v>
+      </c>
+      <c r="S1" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U1" t="s">
+        <v>6</v>
+      </c>
+      <c r="V1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W1" t="s">
+        <v>8</v>
+      </c>
+      <c r="X1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="N2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O2" t="s">
+        <v>68</v>
+      </c>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2" t="n">
+        <v>22426057058.8067</v>
+      </c>
+      <c r="AA2" s="2" t="n">
+        <v>23733260919.1768</v>
+      </c>
+      <c r="AB2" s="2" t="n">
+        <v>26518577625.9108</v>
+      </c>
+      <c r="AC2" s="2" t="n">
+        <v>30995764720.1117</v>
+      </c>
+      <c r="AD2" s="2" t="n">
+        <v>32222065690.0194</v>
+      </c>
+      <c r="AE2" s="2" t="n">
+        <v>37511927941.3769</v>
+      </c>
+      <c r="AF2" s="2" t="n">
+        <v>43768727053.2062</v>
+      </c>
+      <c r="AG2" s="2" t="n">
+        <v>49596016683.5316</v>
+      </c>
+      <c r="AH2" s="2" t="n">
+        <v>66121067978.0838</v>
+      </c>
+      <c r="AI2" s="2" t="n">
+        <v>58594209424.0085</v>
+      </c>
+      <c r="AJ2" s="2" t="n">
+        <v>55365573721.5935</v>
+      </c>
+      <c r="AK2" s="2" t="n">
+        <v>50572817522.0654</v>
+      </c>
+      <c r="AL2" s="2" t="n">
+        <v>49680679973.9488</v>
+      </c>
+      <c r="AM2" s="2" t="n">
+        <v>39217226964.7278</v>
+      </c>
+      <c r="AN2" s="2" t="n">
+        <v>35348712258.6913</v>
+      </c>
+      <c r="AO2" s="2" t="n">
+        <v>36900594644.3396</v>
+      </c>
+      <c r="AP2" s="2" t="n">
+        <v>37112064968.0668</v>
+      </c>
+      <c r="AQ2" s="2" t="n">
+        <v>37968722543.6747</v>
+      </c>
+      <c r="AR2" s="2" t="n">
+        <v>42314022974.7536</v>
+      </c>
+      <c r="AS2" s="2" t="n">
+        <v>47733041015.7981</v>
+      </c>
+      <c r="AT2" s="2" t="n">
+        <v>50546816472.2488</v>
+      </c>
+      <c r="AU2" s="2" t="n">
+        <v>64463012389.8495</v>
+      </c>
+      <c r="AV2" s="2" t="n">
+        <v>64033923163.3996</v>
+      </c>
+      <c r="AW2" s="2" t="n">
+        <v>22615042703.1834</v>
+      </c>
+      <c r="AX2" s="2"/>
+    </row>
+    <row r="3">
+      <c r="N3" t="s">
+        <v>67</v>
+      </c>
+      <c r="O3" t="s">
+        <v>69</v>
+      </c>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2" t="n">
+        <v>755094650.761</v>
+      </c>
+      <c r="AA3" s="2" t="n">
+        <v>867204815.6904</v>
+      </c>
+      <c r="AB3" s="2" t="n">
+        <v>1238482686.4396</v>
+      </c>
+      <c r="AC3" s="2" t="n">
+        <v>2140208691.3889</v>
+      </c>
+      <c r="AD3" s="2" t="n">
+        <v>3008464667.3929</v>
+      </c>
+      <c r="AE3" s="2" t="n">
+        <v>3309123728.6053</v>
+      </c>
+      <c r="AF3" s="2" t="n">
+        <v>3661270886.0803</v>
+      </c>
+      <c r="AG3" s="2" t="n">
+        <v>4699851917.6664</v>
+      </c>
+      <c r="AH3" s="2" t="n">
+        <v>5381320562.5125</v>
+      </c>
+      <c r="AI3" s="2" t="n">
+        <v>4788731367.3618</v>
+      </c>
+      <c r="AJ3" s="2" t="n">
+        <v>4136740895.6558</v>
+      </c>
+      <c r="AK3" s="2" t="n">
+        <v>3649250735.1012</v>
+      </c>
+      <c r="AL3" s="2" t="n">
+        <v>2491167702.679</v>
+      </c>
+      <c r="AM3" s="2" t="n">
+        <v>1805663574.945</v>
+      </c>
+      <c r="AN3" s="2" t="n">
+        <v>1972921872.3065</v>
+      </c>
+      <c r="AO3" s="2" t="n">
+        <v>1844509580.4308</v>
+      </c>
+      <c r="AP3" s="2" t="n">
+        <v>1685060494.1264</v>
+      </c>
+      <c r="AQ3" s="2" t="n">
+        <v>1695731496.5303</v>
+      </c>
+      <c r="AR3" s="2" t="n">
+        <v>1981163456.2594</v>
+      </c>
+      <c r="AS3" s="2" t="n">
+        <v>2035741811.1246</v>
+      </c>
+      <c r="AT3" s="2" t="n">
+        <v>2090669427.433</v>
+      </c>
+      <c r="AU3" s="2" t="n">
+        <v>1664311903.8864</v>
+      </c>
+      <c r="AV3" s="2" t="n">
+        <v>1705025846.5599</v>
+      </c>
+      <c r="AW3" s="2" t="n">
+        <v>572920521.035</v>
+      </c>
+      <c r="AX3" s="2"/>
+    </row>
+    <row r="4">
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2" t="n">
+        <v>2832989</v>
+      </c>
+      <c r="AA4" s="2" t="n">
+        <v>7200582</v>
+      </c>
+      <c r="AB4" s="2" t="n">
+        <v>4865123</v>
+      </c>
+      <c r="AC4" s="2" t="n">
+        <v>-3506430</v>
+      </c>
+      <c r="AD4" s="2" t="n">
+        <v>465573</v>
+      </c>
+      <c r="AE4" s="2" t="n">
+        <v>12210793</v>
+      </c>
+      <c r="AF4" s="2" t="n">
+        <v>6699975.8398</v>
+      </c>
+      <c r="AG4" s="2" t="n">
+        <v>7264558.6402</v>
+      </c>
+      <c r="AH4" s="2" t="n">
+        <v>12706767.2162</v>
+      </c>
+      <c r="AI4" s="2" t="n">
+        <v>12157638.8696</v>
+      </c>
+      <c r="AJ4" s="2" t="n">
+        <v>504253817.7584</v>
+      </c>
+      <c r="AK4" s="2" t="n">
+        <v>1709845229.2148</v>
+      </c>
+      <c r="AL4" s="2" t="n">
+        <v>1809646129.5469</v>
+      </c>
+      <c r="AM4" s="2" t="n">
+        <v>1585283428.9787</v>
+      </c>
+      <c r="AN4" s="2" t="n">
+        <v>1331602003.9329</v>
+      </c>
+      <c r="AO4" s="2" t="n">
+        <v>1553188366.4409</v>
+      </c>
+      <c r="AP4" s="2" t="n">
+        <v>2062000564.6626</v>
+      </c>
+      <c r="AQ4" s="2" t="n">
+        <v>2664344258.0893</v>
+      </c>
+      <c r="AR4" s="2" t="n">
+        <v>3517529939.2821</v>
+      </c>
+      <c r="AS4" s="2" t="n">
+        <v>2673797317.8054</v>
+      </c>
+      <c r="AT4" s="2" t="n">
+        <v>2994283763.9322</v>
+      </c>
+      <c r="AU4" s="2" t="n">
+        <v>2287204497.7524</v>
+      </c>
+      <c r="AV4" s="2" t="n">
+        <v>1980823166.7063</v>
+      </c>
+      <c r="AW4" s="2" t="n">
+        <v>997727323.1686</v>
+      </c>
+      <c r="AX4" s="2"/>
+    </row>
+    <row r="5">
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2" t="n">
+        <v>1181774691.9517</v>
+      </c>
+      <c r="AA5" s="2" t="n">
+        <v>1678957170.7108</v>
+      </c>
+      <c r="AB5" s="2" t="n">
+        <v>2307294299.3517</v>
+      </c>
+      <c r="AC5" s="2" t="n">
+        <v>3363283022.9507</v>
+      </c>
+      <c r="AD5" s="2" t="n">
+        <v>4115287873.9417</v>
+      </c>
+      <c r="AE5" s="2" t="n">
+        <v>4209179880.9473</v>
+      </c>
+      <c r="AF5" s="2" t="n">
+        <v>4316029472.219</v>
+      </c>
+      <c r="AG5" s="2" t="n">
+        <v>4450449410.4588</v>
+      </c>
+      <c r="AH5" s="2" t="n">
+        <v>4355807120.0178</v>
+      </c>
+      <c r="AI5" s="2" t="n">
+        <v>3906176208.9647</v>
+      </c>
+      <c r="AJ5" s="2" t="n">
+        <v>3428566944.8973</v>
+      </c>
+      <c r="AK5" s="2" t="n">
+        <v>2935201052.1322</v>
+      </c>
+      <c r="AL5" s="2" t="n">
+        <v>2491391711.1839</v>
+      </c>
+      <c r="AM5" s="2" t="n">
+        <v>1802408506.7151</v>
+      </c>
+      <c r="AN5" s="2" t="n">
+        <v>1760995128.8462</v>
+      </c>
+      <c r="AO5" s="2" t="n">
+        <v>1691986448.9076</v>
+      </c>
+      <c r="AP5" s="2" t="n">
+        <v>1612631390.7773</v>
+      </c>
+      <c r="AQ5" s="2" t="n">
+        <v>1788898482.3994</v>
+      </c>
+      <c r="AR5" s="2" t="n">
+        <v>2058930802.9189</v>
+      </c>
+      <c r="AS5" s="2" t="n">
+        <v>2281705976.4069</v>
+      </c>
+      <c r="AT5" s="2" t="n">
+        <v>2478376141.8164</v>
+      </c>
+      <c r="AU5" s="2" t="n">
+        <v>2421184416.8726</v>
+      </c>
+      <c r="AV5" s="2" t="n">
+        <v>2486998020.4462</v>
+      </c>
+      <c r="AW5" s="2" t="n">
+        <v>1114997592.212</v>
+      </c>
+      <c r="AX5" s="2"/>
+    </row>
+    <row r="6">
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" t="s">
+        <v>73</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2" t="n">
+        <v>3038243787.5466</v>
+      </c>
+      <c r="AA6" s="2" t="n">
+        <v>3403975229.5249</v>
+      </c>
+      <c r="AB6" s="2" t="n">
+        <v>3949906232.194</v>
+      </c>
+      <c r="AC6" s="2" t="n">
+        <v>6184072910.7974</v>
+      </c>
+      <c r="AD6" s="2" t="n">
+        <v>9099075437.6138</v>
+      </c>
+      <c r="AE6" s="2" t="n">
+        <v>11095609932.4531</v>
+      </c>
+      <c r="AF6" s="2" t="n">
+        <v>12824666627.849</v>
+      </c>
+      <c r="AG6" s="2" t="n">
+        <v>15404123270.1095</v>
+      </c>
+      <c r="AH6" s="2" t="n">
+        <v>20890139207.4322</v>
+      </c>
+      <c r="AI6" s="2" t="n">
+        <v>25470141767.7483</v>
+      </c>
+      <c r="AJ6" s="2" t="n">
+        <v>29260082658.9859</v>
+      </c>
+      <c r="AK6" s="2" t="n">
+        <v>27661479865.0593</v>
+      </c>
+      <c r="AL6" s="2" t="n">
+        <v>22544368477.5685</v>
+      </c>
+      <c r="AM6" s="2" t="n">
+        <v>19433004579.147</v>
+      </c>
+      <c r="AN6" s="2" t="n">
+        <v>15050005483.7055</v>
+      </c>
+      <c r="AO6" s="2" t="n">
+        <v>12158441181.4959</v>
+      </c>
+      <c r="AP6" s="2" t="n">
+        <v>13759950391.3804</v>
+      </c>
+      <c r="AQ6" s="2" t="n">
+        <v>14122763519.8671</v>
+      </c>
+      <c r="AR6" s="2" t="n">
+        <v>16198607278.9282</v>
+      </c>
+      <c r="AS6" s="2" t="n">
+        <v>16418508296.5464</v>
+      </c>
+      <c r="AT6" s="2" t="n">
+        <v>19153356315.3025</v>
+      </c>
+      <c r="AU6" s="2" t="n">
+        <v>15087548997.3585</v>
+      </c>
+      <c r="AV6" s="2" t="n">
+        <v>16642399465.7607</v>
+      </c>
+      <c r="AW6" s="2" t="n">
+        <v>5979165882.1862</v>
+      </c>
+      <c r="AX6" s="2"/>
+    </row>
+    <row r="7">
+      <c r="N7" t="s">
+        <v>70</v>
+      </c>
+      <c r="O7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2" t="n">
+        <v>9013442525.9655</v>
+      </c>
+      <c r="AA7" s="2" t="n">
+        <v>10744373454.6069</v>
+      </c>
+      <c r="AB7" s="2" t="n">
+        <v>12102084267.73</v>
+      </c>
+      <c r="AC7" s="2" t="n">
+        <v>21499462787.5988</v>
+      </c>
+      <c r="AD7" s="2" t="n">
+        <v>27565658545.0698</v>
+      </c>
+      <c r="AE7" s="2" t="n">
+        <v>39480019366.891</v>
+      </c>
+      <c r="AF7" s="2" t="n">
+        <v>37094690793.1826</v>
+      </c>
+      <c r="AG7" s="2" t="n">
+        <v>44196959584.0019</v>
+      </c>
+      <c r="AH7" s="2" t="n">
+        <v>56347615150.9101</v>
+      </c>
+      <c r="AI7" s="2" t="n">
+        <v>54408839257.1663</v>
+      </c>
+      <c r="AJ7" s="2" t="n">
+        <v>48307403618.3893</v>
+      </c>
+      <c r="AK7" s="2" t="n">
+        <v>38787165303.455</v>
+      </c>
+      <c r="AL7" s="2" t="n">
+        <v>29793711237.7434</v>
+      </c>
+      <c r="AM7" s="2" t="n">
+        <v>23148691353.8143</v>
+      </c>
+      <c r="AN7" s="2" t="n">
+        <v>19853817590.0379</v>
+      </c>
+      <c r="AO7" s="2" t="n">
+        <v>18421052922.6867</v>
+      </c>
+      <c r="AP7" s="2" t="n">
+        <v>18105415285.1254</v>
+      </c>
+      <c r="AQ7" s="2" t="n">
+        <v>20336037085.2464</v>
+      </c>
+      <c r="AR7" s="2" t="n">
+        <v>25489529609.2491</v>
+      </c>
+      <c r="AS7" s="2" t="n">
+        <v>23999079792.5684</v>
+      </c>
+      <c r="AT7" s="2" t="n">
+        <v>23426148618.5942</v>
+      </c>
+      <c r="AU7" s="2" t="n">
+        <v>23964270704.2229</v>
+      </c>
+      <c r="AV7" s="2" t="n">
+        <v>25806448890.1831</v>
+      </c>
+      <c r="AW7" s="2" t="n">
+        <v>13156437966.404</v>
+      </c>
+      <c r="AX7" s="2"/>
+    </row>
+    <row r="8">
+      <c r="N8" t="s">
+        <v>70</v>
+      </c>
+      <c r="O8" t="s">
+        <v>75</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2" t="n">
+        <v>415041124.7452</v>
+      </c>
+      <c r="AA8" s="2" t="n">
+        <v>121233368.5304</v>
+      </c>
+      <c r="AB8" s="2" t="n">
+        <v>57538019</v>
+      </c>
+      <c r="AC8" s="2" t="n">
+        <v>27305150</v>
+      </c>
+      <c r="AD8" s="2" t="n">
+        <v>45752344</v>
+      </c>
+      <c r="AE8" s="2" t="n">
+        <v>7386877</v>
+      </c>
+      <c r="AF8" s="2" t="n">
+        <v>5013422.5096</v>
+      </c>
+      <c r="AG8" s="2" t="n">
+        <v>8048633.3325</v>
+      </c>
+      <c r="AH8" s="2" t="n">
+        <v>8852176.4344</v>
+      </c>
+      <c r="AI8" s="2" t="n">
+        <v>5894062.2515</v>
+      </c>
+      <c r="AJ8" s="2" t="n">
+        <v>175449934.7546</v>
+      </c>
+      <c r="AK8" s="2" t="n">
+        <v>195167191.8857</v>
+      </c>
+      <c r="AL8" s="2" t="n">
+        <v>167314558.6792</v>
+      </c>
+      <c r="AM8" s="2" t="n">
+        <v>132296280.5538</v>
+      </c>
+      <c r="AN8" s="2" t="n">
+        <v>125156557.7638</v>
+      </c>
+      <c r="AO8" s="2" t="n">
+        <v>151002188.463</v>
+      </c>
+      <c r="AP8" s="2" t="n">
+        <v>30455034.3666</v>
+      </c>
+      <c r="AQ8" s="2" t="n">
+        <v>30742692.3201</v>
+      </c>
+      <c r="AR8" s="2" t="n">
+        <v>858810.375</v>
+      </c>
+      <c r="AS8" s="2" t="n">
+        <v>1122630.5</v>
+      </c>
+      <c r="AT8" s="2" t="n">
+        <v>1471383.125</v>
+      </c>
+      <c r="AU8" s="2" t="n">
+        <v>1930569.125</v>
+      </c>
+      <c r="AV8" s="2" t="n">
+        <v>1306848.125</v>
+      </c>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+    </row>
+    <row r="9">
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9" s="2" t="n">
+        <v>22813033000</v>
+      </c>
+      <c r="Q9" s="2" t="n">
+        <v>34893842000</v>
+      </c>
+      <c r="R9" s="2" t="n">
+        <v>31113808998</v>
+      </c>
+      <c r="S9" s="2" t="n">
+        <v>30657778464</v>
+      </c>
+      <c r="T9" s="2" t="n">
+        <v>20628301908</v>
+      </c>
+      <c r="U9" s="2" t="n">
+        <v>29493441926</v>
+      </c>
+      <c r="V9" s="2" t="n">
+        <v>31662201213</v>
+      </c>
+      <c r="W9" s="2" t="n">
+        <v>31185929950</v>
+      </c>
+      <c r="X9" s="2" t="n">
+        <v>31088689272</v>
+      </c>
+      <c r="Y9" s="2" t="n">
+        <v>33772526734</v>
+      </c>
+      <c r="Z9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2" t="n">
+        <v>115762.3828</v>
+      </c>
+      <c r="AC9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2" t="n">
+        <v>667000</v>
+      </c>
+      <c r="AE9" s="2" t="n">
+        <v>1971192.5625</v>
+      </c>
+      <c r="AF9" s="2" t="n">
+        <v>1077990</v>
+      </c>
+      <c r="AG9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="2"/>
+    </row>
+    <row r="13">
+      <c r="N13" t="s">
+        <v>65</v>
+      </c>
+      <c r="O13" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>2</v>
+      </c>
+      <c r="R13" t="s">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s">
+        <v>5</v>
+      </c>
+      <c r="U13" t="s">
+        <v>6</v>
+      </c>
+      <c r="V13" t="s">
+        <v>7</v>
+      </c>
+      <c r="W13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X13" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>14</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>17</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>18</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>23</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>24</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>25</v>
+      </c>
+      <c r="AO13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AP13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>28</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>29</v>
+      </c>
+      <c r="AS13" t="s">
+        <v>30</v>
+      </c>
+      <c r="AT13" t="s">
+        <v>31</v>
+      </c>
+      <c r="AU13" t="s">
+        <v>32</v>
+      </c>
+      <c r="AV13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AW13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="N14" t="s">
+        <v>67</v>
+      </c>
+      <c r="O14" t="s">
+        <v>68</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2" t="n">
+        <v>36234454287.752</v>
+      </c>
+      <c r="AA14" s="2" t="n">
+        <v>37438676552.9275</v>
+      </c>
+      <c r="AB14" s="2" t="n">
+        <v>41182445189.52</v>
+      </c>
+      <c r="AC14" s="2" t="n">
+        <v>47232534524.0382</v>
+      </c>
+      <c r="AD14" s="2" t="n">
+        <v>47929656641.4567</v>
+      </c>
+      <c r="AE14" s="2" t="n">
+        <v>54154271308.5913</v>
+      </c>
+      <c r="AF14" s="2" t="n">
+        <v>61194579715.5546</v>
+      </c>
+      <c r="AG14" s="2" t="n">
+        <v>67491099853.7476</v>
+      </c>
+      <c r="AH14" s="2" t="n">
+        <v>88140426453.2653</v>
+      </c>
+      <c r="AI14" s="2" t="n">
+        <v>77321270012.6262</v>
+      </c>
+      <c r="AJ14" s="2" t="n">
+        <v>72430778059.6474</v>
+      </c>
+      <c r="AK14" s="2" t="n">
+        <v>64853715963.7456</v>
+      </c>
+      <c r="AL14" s="2" t="n">
+        <v>62562880279.2567</v>
+      </c>
+      <c r="AM14" s="2" t="n">
+        <v>48498727187.2006</v>
+      </c>
+      <c r="AN14" s="2" t="n">
+        <v>42885003233.7093</v>
+      </c>
+      <c r="AO14" s="2" t="n">
+        <v>44260328469.7953</v>
+      </c>
+      <c r="AP14" s="2" t="n">
+        <v>44148142301.0842</v>
+      </c>
+      <c r="AQ14" s="2" t="n">
+        <v>44374953432.1083</v>
+      </c>
+      <c r="AR14" s="2" t="n">
+        <v>48318869356.7404</v>
+      </c>
+      <c r="AS14" s="2" t="n">
+        <v>53459817290.7323</v>
+      </c>
+      <c r="AT14" s="2" t="n">
+        <v>55865899612.2875</v>
+      </c>
+      <c r="AU14" s="2" t="n">
+        <v>68929499479.9172</v>
+      </c>
+      <c r="AV14" s="2" t="n">
+        <v>64033923163.3996</v>
+      </c>
+      <c r="AW14" s="2" t="n">
+        <v>21570191081.1569</v>
+      </c>
+      <c r="AX14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="N15" t="s">
+        <v>67</v>
+      </c>
+      <c r="O15" t="s">
+        <v>69</v>
+      </c>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2" t="n">
+        <v>1220029117.65451</v>
+      </c>
+      <c r="AA15" s="2" t="n">
+        <v>1367995772.27671</v>
+      </c>
+      <c r="AB15" s="2" t="n">
+        <v>1923321305.99017</v>
+      </c>
+      <c r="AC15" s="2" t="n">
+        <v>3261332050.28111</v>
+      </c>
+      <c r="AD15" s="2" t="n">
+        <v>4475029003.82825</v>
+      </c>
+      <c r="AE15" s="2" t="n">
+        <v>4777232043.96865</v>
+      </c>
+      <c r="AF15" s="2" t="n">
+        <v>5118950177.05497</v>
+      </c>
+      <c r="AG15" s="2" t="n">
+        <v>6395638123.46196</v>
+      </c>
+      <c r="AH15" s="2" t="n">
+        <v>7173385182.14483</v>
+      </c>
+      <c r="AI15" s="2" t="n">
+        <v>6319238619.5418</v>
+      </c>
+      <c r="AJ15" s="2" t="n">
+        <v>5411799093.96753</v>
+      </c>
+      <c r="AK15" s="2" t="n">
+        <v>4679736709.37916</v>
+      </c>
+      <c r="AL15" s="2" t="n">
+        <v>3137127487.3851</v>
+      </c>
+      <c r="AM15" s="2" t="n">
+        <v>2233008090.85471</v>
+      </c>
+      <c r="AN15" s="2" t="n">
+        <v>2393545774.86531</v>
+      </c>
+      <c r="AO15" s="2" t="n">
+        <v>2212392528.69532</v>
+      </c>
+      <c r="AP15" s="2" t="n">
+        <v>2004531155.69394</v>
+      </c>
+      <c r="AQ15" s="2" t="n">
+        <v>1981841925.4252</v>
+      </c>
+      <c r="AR15" s="2" t="n">
+        <v>2262313329.89684</v>
+      </c>
+      <c r="AS15" s="2" t="n">
+        <v>2279980134.46925</v>
+      </c>
+      <c r="AT15" s="2" t="n">
+        <v>2310672293.6661</v>
+      </c>
+      <c r="AU15" s="2" t="n">
+        <v>1779628072.91056</v>
+      </c>
+      <c r="AV15" s="2" t="n">
+        <v>1705025846.5599</v>
+      </c>
+      <c r="AW15" s="2" t="n">
+        <v>546450664.508422</v>
+      </c>
+      <c r="AX15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="N16" t="s">
+        <v>70</v>
+      </c>
+      <c r="O16" t="s">
+        <v>71</v>
+      </c>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2" t="n">
+        <v>4577345.45796551</v>
+      </c>
+      <c r="AA16" s="2" t="n">
+        <v>11358753.4982606</v>
+      </c>
+      <c r="AB16" s="2" t="n">
+        <v>7555369.82843332</v>
+      </c>
+      <c r="AC16" s="2" t="n">
+        <v>-5343232.45535742</v>
+      </c>
+      <c r="AD16" s="2" t="n">
+        <v>692530.213494189</v>
+      </c>
+      <c r="AE16" s="2" t="n">
+        <v>17628168.7800335</v>
+      </c>
+      <c r="AF16" s="2" t="n">
+        <v>9367469.26915475</v>
+      </c>
+      <c r="AG16" s="2" t="n">
+        <v>9885734.48766391</v>
+      </c>
+      <c r="AH16" s="2" t="n">
+        <v>16938321.1059062</v>
+      </c>
+      <c r="AI16" s="2" t="n">
+        <v>16043293.1341363</v>
+      </c>
+      <c r="AJ16" s="2" t="n">
+        <v>659678820.334229</v>
+      </c>
+      <c r="AK16" s="2" t="n">
+        <v>2192676269.00716</v>
+      </c>
+      <c r="AL16" s="2" t="n">
+        <v>2278887370.5036</v>
+      </c>
+      <c r="AM16" s="2" t="n">
+        <v>1960470805.485</v>
+      </c>
+      <c r="AN16" s="2" t="n">
+        <v>1615497498.9403</v>
+      </c>
+      <c r="AO16" s="2" t="n">
+        <v>1862968007.33763</v>
+      </c>
+      <c r="AP16" s="2" t="n">
+        <v>2452935303.70704</v>
+      </c>
+      <c r="AQ16" s="2" t="n">
+        <v>3113882808.24618</v>
+      </c>
+      <c r="AR16" s="2" t="n">
+        <v>4016707881.82921</v>
+      </c>
+      <c r="AS16" s="2" t="n">
+        <v>2994586413.1099</v>
+      </c>
+      <c r="AT16" s="2" t="n">
+        <v>3309374711.23187</v>
+      </c>
+      <c r="AU16" s="2" t="n">
+        <v>2445679396.50169</v>
+      </c>
+      <c r="AV16" s="2" t="n">
+        <v>1980823166.7063</v>
+      </c>
+      <c r="AW16" s="2" t="n">
+        <v>951630703.95655</v>
+      </c>
+      <c r="AX16" s="2"/>
+    </row>
+    <row r="17">
+      <c r="N17" t="s">
+        <v>70</v>
+      </c>
+      <c r="O17" t="s">
+        <v>72</v>
+      </c>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2" t="n">
+        <v>1909428881.84307</v>
+      </c>
+      <c r="AA17" s="2" t="n">
+        <v>2648516555.5008</v>
+      </c>
+      <c r="AB17" s="2" t="n">
+        <v>3583149230.68503</v>
+      </c>
+      <c r="AC17" s="2" t="n">
+        <v>5125099604.09385</v>
+      </c>
+      <c r="AD17" s="2" t="n">
+        <v>6121405644.07922</v>
+      </c>
+      <c r="AE17" s="2" t="n">
+        <v>6076602344.07875</v>
+      </c>
+      <c r="AF17" s="2" t="n">
+        <v>6034390931.02529</v>
+      </c>
+      <c r="AG17" s="2" t="n">
+        <v>6056246965.79844</v>
+      </c>
+      <c r="AH17" s="2" t="n">
+        <v>5806359589.25817</v>
+      </c>
+      <c r="AI17" s="2" t="n">
+        <v>5154613541.83749</v>
+      </c>
+      <c r="AJ17" s="2" t="n">
+        <v>4485346303.77442</v>
+      </c>
+      <c r="AK17" s="2" t="n">
+        <v>3764051612.27993</v>
+      </c>
+      <c r="AL17" s="2" t="n">
+        <v>3137409581.29527</v>
+      </c>
+      <c r="AM17" s="2" t="n">
+        <v>2228982649.0202</v>
+      </c>
+      <c r="AN17" s="2" t="n">
+        <v>2136436576.31537</v>
+      </c>
+      <c r="AO17" s="2" t="n">
+        <v>2029449029.66707</v>
+      </c>
+      <c r="AP17" s="2" t="n">
+        <v>1918370216.8147</v>
+      </c>
+      <c r="AQ17" s="2" t="n">
+        <v>2090728408.36113</v>
+      </c>
+      <c r="AR17" s="2" t="n">
+        <v>2351116757.20752</v>
+      </c>
+      <c r="AS17" s="2" t="n">
+        <v>2555453874.5921</v>
+      </c>
+      <c r="AT17" s="2" t="n">
+        <v>2739177705.0137</v>
+      </c>
+      <c r="AU17" s="2" t="n">
+        <v>2588942461.98589</v>
+      </c>
+      <c r="AV17" s="2" t="n">
+        <v>2486998020.4462</v>
+      </c>
+      <c r="AW17" s="2" t="n">
+        <v>1063482896.52609</v>
+      </c>
+      <c r="AX17" s="2"/>
+    </row>
+    <row r="18">
+      <c r="N18" t="s">
+        <v>70</v>
+      </c>
+      <c r="O18" t="s">
+        <v>73</v>
+      </c>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2" t="n">
+        <v>4908981786.06354</v>
+      </c>
+      <c r="AA18" s="2" t="n">
+        <v>5369693109.02348</v>
+      </c>
+      <c r="AB18" s="2" t="n">
+        <v>6134069451.45257</v>
+      </c>
+      <c r="AC18" s="2" t="n">
+        <v>9423527372.07624</v>
+      </c>
+      <c r="AD18" s="2" t="n">
+        <v>13534686623.6024</v>
+      </c>
+      <c r="AE18" s="2" t="n">
+        <v>16018229496.3726</v>
+      </c>
+      <c r="AF18" s="2" t="n">
+        <v>17930612497.1215</v>
+      </c>
+      <c r="AG18" s="2" t="n">
+        <v>20962191952.1535</v>
+      </c>
+      <c r="AH18" s="2" t="n">
+        <v>27846885035.5147</v>
+      </c>
+      <c r="AI18" s="2" t="n">
+        <v>33610551763.4478</v>
+      </c>
+      <c r="AJ18" s="2" t="n">
+        <v>38278851109.4824</v>
+      </c>
+      <c r="AK18" s="2" t="n">
+        <v>35472608531.702</v>
+      </c>
+      <c r="AL18" s="2" t="n">
+        <v>28390123218.3852</v>
+      </c>
+      <c r="AM18" s="2" t="n">
+        <v>24032193514.3282</v>
+      </c>
+      <c r="AN18" s="2" t="n">
+        <v>18258643458.1464</v>
+      </c>
+      <c r="AO18" s="2" t="n">
+        <v>14583412694.5768</v>
+      </c>
+      <c r="AP18" s="2" t="n">
+        <v>16368699733.0175</v>
+      </c>
+      <c r="AQ18" s="2" t="n">
+        <v>16505611238.4582</v>
+      </c>
+      <c r="AR18" s="2" t="n">
+        <v>18497375901.5698</v>
+      </c>
+      <c r="AS18" s="2" t="n">
+        <v>18388320438.86</v>
+      </c>
+      <c r="AT18" s="2" t="n">
+        <v>21168879779.729</v>
+      </c>
+      <c r="AU18" s="2" t="n">
+        <v>16132928980.6879</v>
+      </c>
+      <c r="AV18" s="2" t="n">
+        <v>16642399465.7607</v>
+      </c>
+      <c r="AW18" s="2" t="n">
+        <v>5702918728.80415</v>
+      </c>
+      <c r="AX18" s="2"/>
+    </row>
+    <row r="19">
+      <c r="N19" t="s">
+        <v>70</v>
+      </c>
+      <c r="O19" t="s">
+        <v>74</v>
+      </c>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2" t="n">
+        <v>14563289941.0698</v>
+      </c>
+      <c r="AA19" s="2" t="n">
+        <v>16949003506.1242</v>
+      </c>
+      <c r="AB19" s="2" t="n">
+        <v>18794123465.6482</v>
+      </c>
+      <c r="AC19" s="2" t="n">
+        <v>32761705592.1399</v>
+      </c>
+      <c r="AD19" s="2" t="n">
+        <v>41003347267.3998</v>
+      </c>
+      <c r="AE19" s="2" t="n">
+        <v>56995515757.1295</v>
+      </c>
+      <c r="AF19" s="2" t="n">
+        <v>51863377475.1505</v>
+      </c>
+      <c r="AG19" s="2" t="n">
+        <v>60143971471.5313</v>
+      </c>
+      <c r="AH19" s="2" t="n">
+        <v>75112259691.1451</v>
+      </c>
+      <c r="AI19" s="2" t="n">
+        <v>71798230450.2801</v>
+      </c>
+      <c r="AJ19" s="2" t="n">
+        <v>63197084305.779</v>
+      </c>
+      <c r="AK19" s="2" t="n">
+        <v>49739997193.7808</v>
+      </c>
+      <c r="AL19" s="2" t="n">
+        <v>37519220554.5316</v>
+      </c>
+      <c r="AM19" s="2" t="n">
+        <v>28627268004.4179</v>
+      </c>
+      <c r="AN19" s="2" t="n">
+        <v>24086620902.036</v>
+      </c>
+      <c r="AO19" s="2" t="n">
+        <v>22095087111.087</v>
+      </c>
+      <c r="AP19" s="2" t="n">
+        <v>21538021425.5316</v>
+      </c>
+      <c r="AQ19" s="2" t="n">
+        <v>23767212542.2026</v>
+      </c>
+      <c r="AR19" s="2" t="n">
+        <v>29106786936.5415</v>
+      </c>
+      <c r="AS19" s="2" t="n">
+        <v>26878371743.2079</v>
+      </c>
+      <c r="AT19" s="2" t="n">
+        <v>25891301537.2081</v>
+      </c>
+      <c r="AU19" s="2" t="n">
+        <v>25624697385.4333</v>
+      </c>
+      <c r="AV19" s="2" t="n">
+        <v>25806448890.1831</v>
+      </c>
+      <c r="AW19" s="2" t="n">
+        <v>12548589211.4974</v>
+      </c>
+      <c r="AX19" s="2"/>
+    </row>
+    <row r="20">
+      <c r="N20" t="s">
+        <v>70</v>
+      </c>
+      <c r="O20" t="s">
+        <v>75</v>
+      </c>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2" t="n">
+        <v>670594417.140815</v>
+      </c>
+      <c r="AA20" s="2" t="n">
+        <v>191242867.437743</v>
+      </c>
+      <c r="AB20" s="2" t="n">
+        <v>89354578.0323381</v>
+      </c>
+      <c r="AC20" s="2" t="n">
+        <v>41608634.3313292</v>
+      </c>
+      <c r="AD20" s="2" t="n">
+        <v>68055665.9389174</v>
+      </c>
+      <c r="AE20" s="2" t="n">
+        <v>10664099.744656</v>
+      </c>
+      <c r="AF20" s="2" t="n">
+        <v>7009440.39424605</v>
+      </c>
+      <c r="AG20" s="2" t="n">
+        <v>10952716.6142424</v>
+      </c>
+      <c r="AH20" s="2" t="n">
+        <v>11800090.8005021</v>
+      </c>
+      <c r="AI20" s="2" t="n">
+        <v>7777839.8804153</v>
+      </c>
+      <c r="AJ20" s="2" t="n">
+        <v>229528467.431626</v>
+      </c>
+      <c r="AK20" s="2" t="n">
+        <v>250279067.850521</v>
+      </c>
+      <c r="AL20" s="2" t="n">
+        <v>210699223.704515</v>
+      </c>
+      <c r="AM20" s="2" t="n">
+        <v>163606703.355922</v>
+      </c>
+      <c r="AN20" s="2" t="n">
+        <v>151839742.990943</v>
+      </c>
+      <c r="AO20" s="2" t="n">
+        <v>181119207.575033</v>
+      </c>
+      <c r="AP20" s="2" t="n">
+        <v>36229005.1000389</v>
+      </c>
+      <c r="AQ20" s="2" t="n">
+        <v>35929719.2185713</v>
+      </c>
+      <c r="AR20" s="2" t="n">
+        <v>980685.441717443</v>
+      </c>
+      <c r="AS20" s="2" t="n">
+        <v>1257318.20428412</v>
+      </c>
+      <c r="AT20" s="2" t="n">
+        <v>1626217.98343311</v>
+      </c>
+      <c r="AU20" s="2" t="n">
+        <v>2064333.61650635</v>
+      </c>
+      <c r="AV20" s="2" t="n">
+        <v>1306848.125</v>
+      </c>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+    </row>
+    <row r="21">
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21" s="2" t="n">
+        <v>45341623216.1956</v>
+      </c>
+      <c r="Q21" s="2" t="n">
+        <v>66964058620.3498</v>
+      </c>
+      <c r="R21" s="2" t="n">
+        <v>58253969126.9293</v>
+      </c>
+      <c r="S21" s="2" t="n">
+        <v>56082714189.9998</v>
+      </c>
+      <c r="T21" s="2" t="n">
+        <v>36930936282.1019</v>
+      </c>
+      <c r="U21" s="2" t="n">
+        <v>51706934999.2854</v>
+      </c>
+      <c r="V21" s="2" t="n">
+        <v>54485118895.0853</v>
+      </c>
+      <c r="W21" s="2" t="n">
+        <v>52728842061.1894</v>
+      </c>
+      <c r="X21" s="2" t="n">
+        <v>51916173443.895</v>
+      </c>
+      <c r="Y21" s="2" t="n">
+        <v>55703658070.0609</v>
+      </c>
+      <c r="Z21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="2" t="n">
+        <v>179775.026093825</v>
+      </c>
+      <c r="AC21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="2" t="n">
+        <v>992148.712233365</v>
+      </c>
+      <c r="AE21" s="2" t="n">
+        <v>2845721.41954227</v>
+      </c>
+      <c r="AF21" s="2" t="n">
+        <v>1507175.31509152</v>
+      </c>
+      <c r="AG21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX21" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>